--- a/clientes_para_importar.xlsx
+++ b/clientes_para_importar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gkolndor\desenv\Projetos\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gkolndor\desenv\Projetos\desafiobeca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F54322F-7B4C-4E50-8335-8E879473A62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82E4619-C1B2-403D-8708-6EB6A0FB10CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{FA699844-AA00-4EE8-9121-ECA0CDAE8B89}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FA699844-AA00-4EE8-9121-ECA0CDAE8B89}"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="157">
   <si>
     <t>Nome</t>
   </si>
@@ -507,36 +507,6 @@
   </si>
   <si>
     <t>558.326.080-70</t>
-  </si>
-  <si>
-    <t>Sarah Botega</t>
-  </si>
-  <si>
-    <t>saraht@example.com</t>
-  </si>
-  <si>
-    <t>007.637.080-11</t>
-  </si>
-  <si>
-    <t>sarhotega</t>
-  </si>
-  <si>
-    <t>(11) 9402-8640</t>
-  </si>
-  <si>
-    <t>Rua Barbeiro</t>
-  </si>
-  <si>
-    <t>Jaguara</t>
-  </si>
-  <si>
-    <t>Abrobrinha</t>
-  </si>
-  <si>
-    <t>09859-050</t>
-  </si>
-  <si>
-    <t>sarh0t3g4</t>
   </si>
 </sst>
 </file>
@@ -995,7 +965,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1723,57 +1693,23 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16" s="3">
-        <v>38906</v>
-      </c>
-      <c r="E16" t="s">
-        <v>160</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="I16" s="7">
-        <v>29</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="3"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1" xr:uid="{7360F306-F60B-4AF2-8BD8-3E1E25DC2D23}"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/clientes_para_importar.xlsx
+++ b/clientes_para_importar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gkolndor\desenv\Projetos\desafiobeca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82E4619-C1B2-403D-8708-6EB6A0FB10CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DF94FA-4883-430C-AEEE-BEBD809288E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FA699844-AA00-4EE8-9121-ECA0CDAE8B89}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{FA699844-AA00-4EE8-9121-ECA0CDAE8B89}"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="158">
   <si>
     <t>Nome</t>
   </si>
@@ -507,6 +507,9 @@
   </si>
   <si>
     <t>558.326.080-70</t>
+  </si>
+  <si>
+    <t>703.124.040-93</t>
   </si>
 </sst>
 </file>
@@ -601,7 +604,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -625,6 +628,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -965,7 +971,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1555,7 +1561,7 @@
       <c r="A13" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="9" t="s">
         <v>113</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1606,7 +1612,7 @@
         <v>121</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D14" s="4">
         <v>30862</v>
@@ -1709,7 +1715,10 @@
       <c r="O16" s="7"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{0950DDF6-16AB-4DA7-916C-100EFF5E8163}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>